--- a/agregado/resultados/1950_2000_top5_x_yr_impo.xlsx
+++ b/agregado/resultados/1950_2000_top5_x_yr_impo.xlsx
@@ -6919,7 +6919,7 @@
         <v>118</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT2" t="s">
         <v>118</v>
@@ -6949,7 +6949,7 @@
         <v>121</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CD2" t="s">
         <v>118</v>
@@ -6961,7 +6961,7 @@
         <v>118</v>
       </c>
       <c r="CG2" t="n">
-        <v>1.0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CH2" t="s">
         <v>118</v>
@@ -6973,7 +6973,7 @@
         <v>118</v>
       </c>
       <c r="CK2" t="n">
-        <v>1.0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CL2" t="s">
         <v>118</v>
@@ -7003,7 +7003,7 @@
         <v>118</v>
       </c>
       <c r="CU2" t="n">
-        <v>1.0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CV2" t="s">
         <v>118</v>
@@ -7021,7 +7021,7 @@
         <v>118</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DB2" t="s">
         <v>118</v>
@@ -7038,13 +7038,13 @@
         <v>112</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9620266038360247</v>
+        <v>0.9620266038360245</v>
       </c>
       <c r="D3" t="s">
         <v>116</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9083761200797792</v>
+        <v>0.9083761200797789</v>
       </c>
       <c r="F3" t="s">
         <v>112</v>
@@ -7056,199 +7056,199 @@
         <v>118</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9585779845740179</v>
+        <v>0.9585779845740178</v>
       </c>
       <c r="J3" t="s">
         <v>118</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9883089759199751</v>
+        <v>0.9883089759199738</v>
       </c>
       <c r="L3" t="s">
         <v>113</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9965409061730429</v>
+        <v>0.9965409061730425</v>
       </c>
       <c r="N3" t="s">
         <v>113</v>
       </c>
       <c r="O3" t="n">
-        <v>0.965134460681735</v>
+        <v>0.9651344606817351</v>
       </c>
       <c r="P3" t="s">
         <v>113</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.955441312048398</v>
+        <v>0.9554413120483976</v>
       </c>
       <c r="R3" t="s">
         <v>113</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9668426481847222</v>
+        <v>0.9668426481847217</v>
       </c>
       <c r="T3" t="s">
         <v>118</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9983394033091162</v>
+        <v>0.9983394033091172</v>
       </c>
       <c r="V3" t="s">
         <v>118</v>
       </c>
       <c r="W3" t="n">
-        <v>0.9870146361478398</v>
+        <v>0.9870146361478384</v>
       </c>
       <c r="X3" t="s">
         <v>118</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9765464258998923</v>
+        <v>0.9765464258998909</v>
       </c>
       <c r="Z3" t="s">
         <v>118</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.9575504918015652</v>
+        <v>0.957550491801563</v>
       </c>
       <c r="AB3" t="s">
         <v>118</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.9574502774681124</v>
+        <v>0.9574502774681132</v>
       </c>
       <c r="AD3" t="s">
         <v>118</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.9496862344243134</v>
+        <v>0.9496862344243143</v>
       </c>
       <c r="AF3" t="s">
         <v>118</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.9806282359041143</v>
+        <v>0.9806282359041141</v>
       </c>
       <c r="AH3" t="s">
         <v>118</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.96721243692858</v>
+        <v>0.9672124369285805</v>
       </c>
       <c r="AJ3" t="s">
         <v>118</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.9514013486112735</v>
+        <v>0.9514013486112726</v>
       </c>
       <c r="AL3" t="s">
         <v>118</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.950882394808792</v>
+        <v>0.9508823948087918</v>
       </c>
       <c r="AN3" t="s">
         <v>118</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.9481451916842619</v>
+        <v>0.9481451916842607</v>
       </c>
       <c r="AP3" t="s">
         <v>118</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.9873832029751033</v>
+        <v>0.9873832029751037</v>
       </c>
       <c r="AR3" t="s">
         <v>118</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.9813273172672085</v>
+        <v>0.9813273172672087</v>
       </c>
       <c r="AT3" t="s">
         <v>118</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.9686402524676</v>
+        <v>0.9686402524675993</v>
       </c>
       <c r="AV3" t="s">
         <v>118</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.9531133837438879</v>
+        <v>0.9531133837438888</v>
       </c>
       <c r="AX3" t="s">
         <v>118</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.9572432180795244</v>
+        <v>0.9572432180795242</v>
       </c>
       <c r="AZ3" t="s">
         <v>118</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.9740331653653322</v>
+        <v>0.9740331653653318</v>
       </c>
       <c r="BB3" t="s">
         <v>118</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.9817544266185249</v>
+        <v>0.9817544266185244</v>
       </c>
       <c r="BD3" t="s">
         <v>118</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.976193621285852</v>
+        <v>0.9761936212858517</v>
       </c>
       <c r="BF3" t="s">
         <v>118</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.9856019212322683</v>
+        <v>0.9856019212322679</v>
       </c>
       <c r="BH3" t="s">
         <v>118</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.9889505697212112</v>
+        <v>0.9889505697212105</v>
       </c>
       <c r="BJ3" t="s">
         <v>118</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.9857091890497476</v>
+        <v>0.9857091890497458</v>
       </c>
       <c r="BL3" t="s">
         <v>113</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.9990741714193152</v>
+        <v>0.9990741714193143</v>
       </c>
       <c r="BN3" t="s">
         <v>113</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.9923929217871874</v>
+        <v>0.9923929217871872</v>
       </c>
       <c r="BP3" t="s">
         <v>113</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.970956393776806</v>
+        <v>0.9709563937768055</v>
       </c>
       <c r="BR3" t="s">
         <v>113</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.965838434480059</v>
+        <v>0.9658384344800602</v>
       </c>
       <c r="BT3" t="s">
         <v>121</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.9841453387664107</v>
+        <v>0.984145338766413</v>
       </c>
       <c r="BV3" t="s">
         <v>113</v>
@@ -7260,73 +7260,73 @@
         <v>113</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.957094298541373</v>
+        <v>0.9570942985413725</v>
       </c>
       <c r="BZ3" t="s">
         <v>121</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.9942943724804971</v>
+        <v>0.9942943724804982</v>
       </c>
       <c r="CB3" t="s">
         <v>118</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.9793461424824119</v>
+        <v>0.9793461424824137</v>
       </c>
       <c r="CD3" t="s">
         <v>121</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.9806130079172045</v>
+        <v>0.980613007917202</v>
       </c>
       <c r="CF3" t="s">
         <v>121</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.9857033757137347</v>
+        <v>0.9857033757137343</v>
       </c>
       <c r="CH3" t="s">
         <v>121</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.9750244814276716</v>
+        <v>0.9750244814276724</v>
       </c>
       <c r="CJ3" t="s">
         <v>112</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.9886975697876904</v>
+        <v>0.9886975697876897</v>
       </c>
       <c r="CL3" t="s">
         <v>112</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.9839440313409971</v>
+        <v>0.9839440313409962</v>
       </c>
       <c r="CN3" t="s">
         <v>113</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.9599499195207642</v>
+        <v>0.9599499195207665</v>
       </c>
       <c r="CP3" t="s">
         <v>113</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.952395842471199</v>
+        <v>0.9523958424711988</v>
       </c>
       <c r="CR3" t="s">
         <v>113</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.9707709020390901</v>
+        <v>0.9707709020390911</v>
       </c>
       <c r="CT3" t="s">
         <v>113</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.9941960999307057</v>
+        <v>0.9941960999307055</v>
       </c>
       <c r="CV3" t="s">
         <v>113</v>
@@ -7338,13 +7338,13 @@
         <v>113</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.9673000538570116</v>
+        <v>0.9673000538570102</v>
       </c>
       <c r="CZ3" t="s">
         <v>113</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.9913819769545321</v>
+        <v>0.9913819769545348</v>
       </c>
       <c r="DB3" t="s">
         <v>113</v>
@@ -7361,277 +7361,277 @@
         <v>117</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8908551056851395</v>
+        <v>0.8908551056851387</v>
       </c>
       <c r="D4" t="s">
         <v>112</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9068536758719598</v>
+        <v>0.9068536758719611</v>
       </c>
       <c r="F4" t="s">
         <v>119</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9116071265305836</v>
+        <v>0.9116071265305834</v>
       </c>
       <c r="H4" t="s">
         <v>119</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9475799796184027</v>
+        <v>0.9475799796184032</v>
       </c>
       <c r="J4" t="s">
         <v>112</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9293316647729173</v>
+        <v>0.9293316647729161</v>
       </c>
       <c r="L4" t="s">
         <v>112</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9297356727431254</v>
+        <v>0.9297356727431252</v>
       </c>
       <c r="N4" t="s">
         <v>112</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9103269002656631</v>
+        <v>0.9103269002656635</v>
       </c>
       <c r="P4" t="s">
         <v>112</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8914315715937202</v>
+        <v>0.89143157159372</v>
       </c>
       <c r="R4" t="s">
         <v>112</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8990654018173558</v>
+        <v>0.8990654018173551</v>
       </c>
       <c r="T4" t="s">
         <v>112</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9234591909163914</v>
+        <v>0.923459190916391</v>
       </c>
       <c r="V4" t="s">
         <v>112</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9044624096235616</v>
+        <v>0.9044624096235612</v>
       </c>
       <c r="X4" t="s">
         <v>112</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.8968948802447281</v>
+        <v>0.8968948802447285</v>
       </c>
       <c r="Z4" t="s">
         <v>112</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.9053524148086523</v>
+        <v>0.9053524148086503</v>
       </c>
       <c r="AB4" t="s">
         <v>119</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.9140924423941551</v>
+        <v>0.9140924423941558</v>
       </c>
       <c r="AD4" t="s">
         <v>112</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.9072869624298956</v>
+        <v>0.9072869624298955</v>
       </c>
       <c r="AF4" t="s">
         <v>112</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.9293464295890338</v>
+        <v>0.929346429589032</v>
       </c>
       <c r="AH4" t="s">
         <v>112</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.9203956297518043</v>
+        <v>0.9203956297518041</v>
       </c>
       <c r="AJ4" t="s">
         <v>112</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.9274203481391062</v>
+        <v>0.9274203481391057</v>
       </c>
       <c r="AL4" t="s">
         <v>116</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.9062763433155808</v>
+        <v>0.9062763433155806</v>
       </c>
       <c r="AN4" t="s">
         <v>116</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.899130138089274</v>
+        <v>0.8991301380892747</v>
       </c>
       <c r="AP4" t="s">
         <v>116</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.9186468919117375</v>
+        <v>0.9186468919117365</v>
       </c>
       <c r="AR4" t="s">
         <v>116</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.9352223884802504</v>
+        <v>0.9352223884802501</v>
       </c>
       <c r="AT4" t="s">
         <v>116</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.9253505185881131</v>
+        <v>0.9253505185881127</v>
       </c>
       <c r="AV4" t="s">
         <v>116</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.9218460325422415</v>
+        <v>0.9218460325422427</v>
       </c>
       <c r="AX4" t="s">
         <v>112</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.9280304048830597</v>
+        <v>0.9280304048830603</v>
       </c>
       <c r="AZ4" t="s">
         <v>112</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.9353033907688758</v>
+        <v>0.9353033907688757</v>
       </c>
       <c r="BB4" t="s">
         <v>112</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.9257007299151924</v>
+        <v>0.9257007299151919</v>
       </c>
       <c r="BD4" t="s">
         <v>112</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.9475121244867574</v>
+        <v>0.9475121244867579</v>
       </c>
       <c r="BF4" t="s">
         <v>112</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.9343717506474195</v>
+        <v>0.9343717506474182</v>
       </c>
       <c r="BH4" t="s">
         <v>112</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.9380830765864187</v>
+        <v>0.9380830765864184</v>
       </c>
       <c r="BJ4" t="s">
         <v>112</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.9739518089083677</v>
+        <v>0.9739518089083684</v>
       </c>
       <c r="BL4" t="s">
         <v>112</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.9661639314757065</v>
+        <v>0.9661639314757069</v>
       </c>
       <c r="BN4" t="s">
         <v>112</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.96595185335788</v>
+        <v>0.9659518533578787</v>
       </c>
       <c r="BP4" t="s">
         <v>112</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.9509807630866709</v>
+        <v>0.9509807630866689</v>
       </c>
       <c r="BR4" t="s">
         <v>112</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.9496055837214585</v>
+        <v>0.9496055837214588</v>
       </c>
       <c r="BT4" t="s">
         <v>119</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.9707966365133829</v>
+        <v>0.9707966365133842</v>
       </c>
       <c r="BV4" t="s">
         <v>112</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.9558584242066082</v>
+        <v>0.9558584242066083</v>
       </c>
       <c r="BX4" t="s">
         <v>121</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.939557940234166</v>
+        <v>0.9395579402341653</v>
       </c>
       <c r="BZ4" t="s">
         <v>113</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.9690931375532829</v>
+        <v>0.9690931375532819</v>
       </c>
       <c r="CB4" t="s">
         <v>113</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.978593468945703</v>
+        <v>0.978593468945702</v>
       </c>
       <c r="CD4" t="s">
         <v>113</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.9763932824530627</v>
+        <v>0.9763932824530632</v>
       </c>
       <c r="CF4" t="s">
         <v>112</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.9690291830191523</v>
+        <v>0.9690291830191526</v>
       </c>
       <c r="CH4" t="s">
         <v>112</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.968253951748493</v>
+        <v>0.9682539517484937</v>
       </c>
       <c r="CJ4" t="s">
         <v>121</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.963731816779401</v>
+        <v>0.9637318167794003</v>
       </c>
       <c r="CL4" t="s">
         <v>121</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.9651097514567875</v>
+        <v>0.9651097514567869</v>
       </c>
       <c r="CN4" t="s">
         <v>112</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.9559059293775509</v>
+        <v>0.9559059293775531</v>
       </c>
       <c r="CP4" t="s">
         <v>112</v>
@@ -7643,37 +7643,37 @@
         <v>112</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.9503295311667692</v>
+        <v>0.9503295311667681</v>
       </c>
       <c r="CT4" t="s">
         <v>112</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.9858204211714074</v>
+        <v>0.9858204211714082</v>
       </c>
       <c r="CV4" t="s">
         <v>112</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.9611636874838145</v>
+        <v>0.9611636874838155</v>
       </c>
       <c r="CX4" t="s">
         <v>112</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.9544629736538509</v>
+        <v>0.954462973653849</v>
       </c>
       <c r="CZ4" t="s">
         <v>121</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.9536500364171175</v>
+        <v>0.9536500364171182</v>
       </c>
       <c r="DB4" t="s">
         <v>112</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.9456543312631651</v>
+        <v>0.9456543312631661</v>
       </c>
     </row>
     <row r="5">
@@ -7690,103 +7690,103 @@
         <v>119</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8739504763924129</v>
+        <v>0.8739504763924121</v>
       </c>
       <c r="F5" t="s">
         <v>116</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9053677206683007</v>
+        <v>0.9053677206683008</v>
       </c>
       <c r="H5" t="s">
         <v>112</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9349352885784176</v>
+        <v>0.9349352885784186</v>
       </c>
       <c r="J5" t="s">
         <v>119</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9205311724178519</v>
+        <v>0.9205311724178517</v>
       </c>
       <c r="L5" t="s">
         <v>119</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9041316756158939</v>
+        <v>0.9041316756158937</v>
       </c>
       <c r="N5" t="s">
         <v>119</v>
       </c>
       <c r="O5" t="n">
-        <v>0.891471778431796</v>
+        <v>0.8914717784317968</v>
       </c>
       <c r="P5" t="s">
         <v>119</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.889808970936692</v>
+        <v>0.8898089709366912</v>
       </c>
       <c r="R5" t="s">
         <v>119</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8913614073963754</v>
+        <v>0.8913614073963744</v>
       </c>
       <c r="T5" t="s">
         <v>119</v>
       </c>
       <c r="U5" t="n">
-        <v>0.9093465634401239</v>
+        <v>0.909346563440125</v>
       </c>
       <c r="V5" t="s">
         <v>119</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8885469054319215</v>
+        <v>0.8885469054319218</v>
       </c>
       <c r="X5" t="s">
         <v>119</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.8934258156671937</v>
+        <v>0.8934258156671926</v>
       </c>
       <c r="Z5" t="s">
         <v>119</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.8979786597435861</v>
+        <v>0.8979786597435839</v>
       </c>
       <c r="AB5" t="s">
         <v>112</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.911640345207077</v>
+        <v>0.9116403452070785</v>
       </c>
       <c r="AD5" t="s">
         <v>116</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.8838412471634833</v>
+        <v>0.8838412471634842</v>
       </c>
       <c r="AF5" t="s">
         <v>116</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.905584978881628</v>
+        <v>0.9055849788816283</v>
       </c>
       <c r="AH5" t="s">
         <v>116</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.9018391032851865</v>
+        <v>0.9018391032851876</v>
       </c>
       <c r="AJ5" t="s">
         <v>119</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.9173719627526472</v>
+        <v>0.9173719627526468</v>
       </c>
       <c r="AL5" t="s">
         <v>112</v>
@@ -7798,181 +7798,181 @@
         <v>119</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.8795771048473395</v>
+        <v>0.87957710484734</v>
       </c>
       <c r="AP5" t="s">
         <v>112</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.8960096271812852</v>
+        <v>0.8960096271812856</v>
       </c>
       <c r="AR5" t="s">
         <v>112</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.9098171018890537</v>
+        <v>0.9098171018890541</v>
       </c>
       <c r="AT5" t="s">
         <v>119</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.9082261473260782</v>
+        <v>0.9082261473260784</v>
       </c>
       <c r="AV5" t="s">
         <v>112</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.9161037635294681</v>
+        <v>0.9161037635294691</v>
       </c>
       <c r="AX5" t="s">
         <v>116</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.9249783832284283</v>
+        <v>0.9249783832284305</v>
       </c>
       <c r="AZ5" t="s">
         <v>116</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.9336639880642562</v>
+        <v>0.933663988064256</v>
       </c>
       <c r="BB5" t="s">
         <v>119</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.9093595486681108</v>
+        <v>0.9093595486681098</v>
       </c>
       <c r="BD5" t="s">
         <v>119</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.9263877904673113</v>
+        <v>0.9263877904673119</v>
       </c>
       <c r="BF5" t="s">
         <v>121</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.913934853290254</v>
+        <v>0.9139348532902536</v>
       </c>
       <c r="BH5" t="s">
         <v>119</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.9298279869525669</v>
+        <v>0.9298279869525664</v>
       </c>
       <c r="BJ5" t="s">
         <v>116</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.9260985810370247</v>
+        <v>0.9260985810370234</v>
       </c>
       <c r="BL5" t="s">
         <v>121</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.9199611063435159</v>
+        <v>0.9199611063435155</v>
       </c>
       <c r="BN5" t="s">
         <v>121</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.943556919337029</v>
+        <v>0.9435569193370283</v>
       </c>
       <c r="BP5" t="s">
         <v>121</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.9460044557097496</v>
+        <v>0.9460044557097473</v>
       </c>
       <c r="BR5" t="s">
         <v>119</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.9339324769932896</v>
+        <v>0.9339324769932902</v>
       </c>
       <c r="BT5" t="s">
         <v>113</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.9684441940070356</v>
+        <v>0.9684441940070365</v>
       </c>
       <c r="BV5" t="s">
         <v>121</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.9393978426638141</v>
+        <v>0.9393978426638148</v>
       </c>
       <c r="BX5" t="s">
         <v>112</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.9385634253495309</v>
+        <v>0.9385634253495307</v>
       </c>
       <c r="BZ5" t="s">
         <v>112</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.9591246340876438</v>
+        <v>0.9591246340876428</v>
       </c>
       <c r="CB5" t="s">
         <v>112</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.9615982192640393</v>
+        <v>0.961598219264039</v>
       </c>
       <c r="CD5" t="s">
         <v>112</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.9753573735673279</v>
+        <v>0.9753573735673274</v>
       </c>
       <c r="CF5" t="s">
         <v>113</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.9596054802092091</v>
+        <v>0.9596054802092097</v>
       </c>
       <c r="CH5" t="s">
         <v>113</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.9639450470382405</v>
+        <v>0.9639450470382392</v>
       </c>
       <c r="CJ5" t="s">
         <v>119</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.9531619336191052</v>
+        <v>0.9531619336191055</v>
       </c>
       <c r="CL5" t="s">
         <v>113</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.9525346492993887</v>
+        <v>0.9525346492993891</v>
       </c>
       <c r="CN5" t="s">
         <v>116</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.9403868232589623</v>
+        <v>0.9403868232589639</v>
       </c>
       <c r="CP5" t="s">
         <v>119</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.9334280492289063</v>
+        <v>0.9334280492289059</v>
       </c>
       <c r="CR5" t="s">
         <v>121</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.9144116429463852</v>
+        <v>0.9144116429463853</v>
       </c>
       <c r="CT5" t="s">
         <v>119</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.9701268320550125</v>
+        <v>0.970126832055012</v>
       </c>
       <c r="CV5" t="s">
         <v>119</v>
@@ -7984,19 +7984,19 @@
         <v>124</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.9410830907353116</v>
+        <v>0.94108309073531</v>
       </c>
       <c r="CZ5" t="s">
         <v>112</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.9436273011079506</v>
+        <v>0.9436273011079513</v>
       </c>
       <c r="DB5" t="s">
         <v>121</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.9413827355376194</v>
+        <v>0.9413827355376204</v>
       </c>
     </row>
     <row r="6">
@@ -8013,85 +8013,85 @@
         <v>117</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8646410976376707</v>
+        <v>0.8646410976376702</v>
       </c>
       <c r="F6" t="s">
         <v>118</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8954791689411257</v>
+        <v>0.8954791689411252</v>
       </c>
       <c r="H6" t="s">
         <v>116</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8909520068872016</v>
+        <v>0.8909520068872014</v>
       </c>
       <c r="J6" t="s">
         <v>116</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8558283406259615</v>
+        <v>0.8558283406259612</v>
       </c>
       <c r="L6" t="s">
         <v>116</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9030774731858471</v>
+        <v>0.9030774731858469</v>
       </c>
       <c r="N6" t="s">
         <v>116</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8687407923838506</v>
+        <v>0.8687407923838512</v>
       </c>
       <c r="P6" t="s">
         <v>120</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8383367675728907</v>
+        <v>0.8383367675728904</v>
       </c>
       <c r="R6" t="s">
         <v>116</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8416320768291143</v>
+        <v>0.8416320768291131</v>
       </c>
       <c r="T6" t="s">
         <v>116</v>
       </c>
       <c r="U6" t="n">
-        <v>0.8649864842466454</v>
+        <v>0.8649864842466461</v>
       </c>
       <c r="V6" t="s">
         <v>116</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8692764882727841</v>
+        <v>0.8692764882727847</v>
       </c>
       <c r="X6" t="s">
         <v>116</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.8611494424632097</v>
+        <v>0.8611494424632099</v>
       </c>
       <c r="Z6" t="s">
         <v>116</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.8703343830862237</v>
+        <v>0.8703343830862221</v>
       </c>
       <c r="AB6" t="s">
         <v>116</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.8873849463076088</v>
+        <v>0.8873849463076103</v>
       </c>
       <c r="AD6" t="s">
         <v>119</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.8772761678047991</v>
+        <v>0.8772761678047996</v>
       </c>
       <c r="AF6" t="s">
         <v>119</v>
@@ -8103,199 +8103,199 @@
         <v>119</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.8759601384467134</v>
+        <v>0.8759601384467142</v>
       </c>
       <c r="AJ6" t="s">
         <v>116</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.9050351923521848</v>
+        <v>0.9050351923521835</v>
       </c>
       <c r="AL6" t="s">
         <v>119</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.8909928839727009</v>
+        <v>0.8909928839727003</v>
       </c>
       <c r="AN6" t="s">
         <v>112</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.8720458131790045</v>
+        <v>0.8720458131790048</v>
       </c>
       <c r="AP6" t="s">
         <v>119</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.8764226720122872</v>
+        <v>0.876422672012287</v>
       </c>
       <c r="AR6" t="s">
         <v>119</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.8933991948083143</v>
+        <v>0.8933991948083135</v>
       </c>
       <c r="AT6" t="s">
         <v>112</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.902817694445367</v>
+        <v>0.9028176944453677</v>
       </c>
       <c r="AV6" t="s">
         <v>119</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.9107649869671164</v>
+        <v>0.9107649869671177</v>
       </c>
       <c r="AX6" t="s">
         <v>119</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.9053583352710033</v>
+        <v>0.9053583352710031</v>
       </c>
       <c r="AZ6" t="s">
         <v>119</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.9071507451628129</v>
+        <v>0.9071507451628132</v>
       </c>
       <c r="BB6" t="s">
         <v>116</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.8912521606808583</v>
+        <v>0.8912521606808571</v>
       </c>
       <c r="BD6" t="s">
         <v>116</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.9055850217822131</v>
+        <v>0.905585021782214</v>
       </c>
       <c r="BF6" t="s">
         <v>119</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.907443976179947</v>
+        <v>0.9074439761799461</v>
       </c>
       <c r="BH6" t="s">
         <v>121</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.9217699388898044</v>
+        <v>0.9217699388898051</v>
       </c>
       <c r="BJ6" t="s">
         <v>119</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.9180378684319909</v>
+        <v>0.9180378684319911</v>
       </c>
       <c r="BL6" t="s">
         <v>119</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.9099351500763762</v>
+        <v>0.9099351500763764</v>
       </c>
       <c r="BN6" t="s">
         <v>119</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.8991539525367234</v>
+        <v>0.8991539525367225</v>
       </c>
       <c r="BP6" t="s">
         <v>119</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.92984989576538</v>
+        <v>0.9298498957653791</v>
       </c>
       <c r="BR6" t="s">
         <v>121</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.9283669268564083</v>
+        <v>0.9283669268564098</v>
       </c>
       <c r="BT6" t="s">
         <v>112</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.9431087561726822</v>
+        <v>0.9431087561726829</v>
       </c>
       <c r="BV6" t="s">
         <v>119</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.9384814211942121</v>
+        <v>0.9384814211942136</v>
       </c>
       <c r="BX6" t="s">
         <v>119</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.9369137212967453</v>
+        <v>0.9369137212967449</v>
       </c>
       <c r="BZ6" t="s">
         <v>116</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.9537648324886072</v>
+        <v>0.9537648324886073</v>
       </c>
       <c r="CB6" t="s">
         <v>116</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.9403527661719385</v>
+        <v>0.9403527661719391</v>
       </c>
       <c r="CD6" t="s">
         <v>116</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.9402516635577092</v>
+        <v>0.9402516635577101</v>
       </c>
       <c r="CF6" t="s">
         <v>116</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.9447448463127635</v>
+        <v>0.9447448463127633</v>
       </c>
       <c r="CH6" t="s">
         <v>119</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.9487214889658042</v>
+        <v>0.9487214889658053</v>
       </c>
       <c r="CJ6" t="s">
         <v>113</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.947013229383293</v>
+        <v>0.947013229383292</v>
       </c>
       <c r="CL6" t="s">
         <v>119</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.9503881529294866</v>
+        <v>0.9503881529294845</v>
       </c>
       <c r="CN6" t="s">
         <v>121</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.9386176310256996</v>
+        <v>0.9386176310257026</v>
       </c>
       <c r="CP6" t="s">
         <v>121</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.9325234985034208</v>
+        <v>0.9325234985034212</v>
       </c>
       <c r="CR6" t="s">
         <v>119</v>
       </c>
       <c r="CS6" t="n">
-        <v>0.9130579084152938</v>
+        <v>0.9130579084152933</v>
       </c>
       <c r="CT6" t="s">
         <v>121</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.9490500062350375</v>
+        <v>0.9490500062350371</v>
       </c>
       <c r="CV6" t="s">
         <v>121</v>
@@ -8307,19 +8307,19 @@
         <v>121</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.9391875260251957</v>
+        <v>0.9391875260251938</v>
       </c>
       <c r="CZ6" t="s">
         <v>124</v>
       </c>
       <c r="DA6" t="n">
-        <v>0.9427459407669084</v>
+        <v>0.9427459407669091</v>
       </c>
       <c r="DB6" t="s">
         <v>119</v>
       </c>
       <c r="DC6" t="n">
-        <v>0.9291553070336009</v>
+        <v>0.9291553070336016</v>
       </c>
     </row>
   </sheetData>
@@ -8678,7 +8678,7 @@
         <v>121</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.0</v>
       </c>
       <c r="H2" t="s">
         <v>121</v>
@@ -8786,7 +8786,7 @@
         <v>112</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR2" t="s">
         <v>112</v>
@@ -8798,7 +8798,7 @@
         <v>112</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV2" t="s">
         <v>112</v>
@@ -8882,7 +8882,7 @@
         <v>112</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.0</v>
       </c>
       <c r="BX2" t="s">
         <v>112</v>
@@ -8966,7 +8966,7 @@
         <v>112</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.0</v>
       </c>
       <c r="CZ2" t="s">
         <v>112</v>
@@ -8989,49 +8989,49 @@
         <v>115</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7994790112870978</v>
+        <v>0.7994790112870973</v>
       </c>
       <c r="D3" t="s">
         <v>125</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9882939389045946</v>
+        <v>0.988293938904595</v>
       </c>
       <c r="F3" t="s">
         <v>125</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9892765584252293</v>
+        <v>0.9892765584252283</v>
       </c>
       <c r="H3" t="s">
         <v>125</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9349795343336236</v>
+        <v>0.9349795343336228</v>
       </c>
       <c r="J3" t="s">
         <v>112</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9594353904610663</v>
+        <v>0.9594353904610661</v>
       </c>
       <c r="L3" t="s">
         <v>125</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9343746957093929</v>
+        <v>0.9343746957093925</v>
       </c>
       <c r="N3" t="s">
         <v>125</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9421208775316162</v>
+        <v>0.9421208775316159</v>
       </c>
       <c r="P3" t="s">
         <v>115</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8187438284108501</v>
+        <v>0.8187438284108506</v>
       </c>
       <c r="R3" t="s">
         <v>115</v>
@@ -9043,49 +9043,49 @@
         <v>115</v>
       </c>
       <c r="U3" t="n">
-        <v>0.7698376777641804</v>
+        <v>0.7698376777641807</v>
       </c>
       <c r="V3" t="s">
         <v>115</v>
       </c>
       <c r="W3" t="n">
-        <v>0.7858047334981397</v>
+        <v>0.7858047334981406</v>
       </c>
       <c r="X3" t="s">
         <v>115</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.7879538835775836</v>
+        <v>0.7879538835775844</v>
       </c>
       <c r="Z3" t="s">
         <v>115</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.7289701134855192</v>
+        <v>0.7289701134855189</v>
       </c>
       <c r="AB3" t="s">
         <v>115</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.7222727249548943</v>
+        <v>0.722272724954894</v>
       </c>
       <c r="AD3" t="s">
         <v>115</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.7192291962116862</v>
+        <v>0.7192291962116858</v>
       </c>
       <c r="AF3" t="s">
         <v>115</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.6964069156907731</v>
+        <v>0.6964069156907733</v>
       </c>
       <c r="AH3" t="s">
         <v>115</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.7107806307129839</v>
+        <v>0.7107806307129836</v>
       </c>
       <c r="AJ3" t="s">
         <v>115</v>
@@ -9097,169 +9097,169 @@
         <v>115</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.7496477209113989</v>
+        <v>0.7496477209113994</v>
       </c>
       <c r="AN3" t="s">
         <v>115</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.780021695617908</v>
+        <v>0.7800216956179078</v>
       </c>
       <c r="AP3" t="s">
         <v>115</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.7830519479130827</v>
+        <v>0.783051947913083</v>
       </c>
       <c r="AR3" t="s">
         <v>115</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.7861042231179846</v>
+        <v>0.7861042231179839</v>
       </c>
       <c r="AT3" t="s">
         <v>115</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.7406615771041926</v>
+        <v>0.740661577104193</v>
       </c>
       <c r="AV3" t="s">
         <v>115</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.7543760715876635</v>
+        <v>0.7543760715876631</v>
       </c>
       <c r="AX3" t="s">
         <v>115</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.7514860086352128</v>
+        <v>0.7514860086352133</v>
       </c>
       <c r="AZ3" t="s">
         <v>115</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.714968505191593</v>
+        <v>0.7149685051915935</v>
       </c>
       <c r="BB3" t="s">
         <v>115</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.7059348263750903</v>
+        <v>0.7059348263750898</v>
       </c>
       <c r="BD3" t="s">
         <v>115</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.7018864938986383</v>
+        <v>0.7018864938986384</v>
       </c>
       <c r="BF3" t="s">
         <v>115</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.7125082261185849</v>
+        <v>0.7125082261185846</v>
       </c>
       <c r="BH3" t="s">
         <v>115</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.6876364026707824</v>
+        <v>0.687636402670783</v>
       </c>
       <c r="BJ3" t="s">
         <v>118</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.7210756217224583</v>
+        <v>0.7210756217224589</v>
       </c>
       <c r="BL3" t="s">
         <v>118</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.7928660549678681</v>
+        <v>0.7928660549678687</v>
       </c>
       <c r="BN3" t="s">
         <v>118</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.7794693074639386</v>
+        <v>0.7794693074639379</v>
       </c>
       <c r="BP3" t="s">
         <v>121</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.6448197404215041</v>
+        <v>0.6448197404215037</v>
       </c>
       <c r="BR3" t="s">
         <v>121</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.6680280400540658</v>
+        <v>0.668028040054066</v>
       </c>
       <c r="BT3" t="s">
         <v>115</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.6642892931033849</v>
+        <v>0.6642892931033852</v>
       </c>
       <c r="BV3" t="s">
         <v>115</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.6931198565405957</v>
+        <v>0.6931198565405967</v>
       </c>
       <c r="BX3" t="s">
         <v>115</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.6747954228829028</v>
+        <v>0.6747954228829023</v>
       </c>
       <c r="BZ3" t="s">
         <v>121</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.6971627038175602</v>
+        <v>0.6971627038175591</v>
       </c>
       <c r="CB3" t="s">
         <v>121</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.6967053544771773</v>
+        <v>0.6967053544771764</v>
       </c>
       <c r="CD3" t="s">
         <v>121</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.7010681129197116</v>
+        <v>0.7010681129197113</v>
       </c>
       <c r="CF3" t="s">
         <v>121</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.701282998514177</v>
+        <v>0.7012829985141769</v>
       </c>
       <c r="CH3" t="s">
         <v>118</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.7345489601769194</v>
+        <v>0.734548960176919</v>
       </c>
       <c r="CJ3" t="s">
         <v>118</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.7301287974164512</v>
+        <v>0.7301287974164515</v>
       </c>
       <c r="CL3" t="s">
         <v>118</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.7179516145694179</v>
+        <v>0.7179516145694177</v>
       </c>
       <c r="CN3" t="s">
         <v>121</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.6806041256428701</v>
+        <v>0.6806041256428705</v>
       </c>
       <c r="CP3" t="s">
         <v>121</v>
@@ -9271,37 +9271,37 @@
         <v>121</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.6715724444221769</v>
+        <v>0.671572444422177</v>
       </c>
       <c r="CT3" t="s">
         <v>121</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.6261717980297871</v>
+        <v>0.6261717980297866</v>
       </c>
       <c r="CV3" t="s">
         <v>115</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.6176001998961135</v>
+        <v>0.617600199896113</v>
       </c>
       <c r="CX3" t="s">
         <v>115</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.6232572084577881</v>
+        <v>0.6232572084577884</v>
       </c>
       <c r="CZ3" t="s">
         <v>115</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.6297374693011005</v>
+        <v>0.6297374693011004</v>
       </c>
       <c r="DB3" t="s">
         <v>115</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.6213103119958311</v>
+        <v>0.6213103119958321</v>
       </c>
     </row>
     <row r="4">
@@ -9312,109 +9312,109 @@
         <v>113</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5999189467317015</v>
+        <v>0.5999189467317013</v>
       </c>
       <c r="D4" t="s">
         <v>112</v>
       </c>
       <c r="E4" t="n">
-        <v>0.23459764318244927</v>
+        <v>0.2345976431824481</v>
       </c>
       <c r="F4" t="s">
         <v>112</v>
       </c>
       <c r="G4" t="n">
-        <v>0.22094808828106224</v>
+        <v>0.22094808828106272</v>
       </c>
       <c r="H4" t="s">
         <v>112</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8842364387005449</v>
+        <v>0.8842364387005444</v>
       </c>
       <c r="J4" t="s">
         <v>125</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9231313323966105</v>
+        <v>0.9231313323966106</v>
       </c>
       <c r="L4" t="s">
         <v>112</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8684531151343359</v>
+        <v>0.868453115134336</v>
       </c>
       <c r="N4" t="s">
         <v>112</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7254739060734974</v>
+        <v>0.7254739060734982</v>
       </c>
       <c r="P4" t="s">
         <v>121</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7525839414014339</v>
+        <v>0.7525839414014326</v>
       </c>
       <c r="R4" t="s">
         <v>121</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5748307671000756</v>
+        <v>0.5748307671000755</v>
       </c>
       <c r="T4" t="s">
         <v>121</v>
       </c>
       <c r="U4" t="n">
-        <v>0.6101467678859699</v>
+        <v>0.6101467678859708</v>
       </c>
       <c r="V4" t="s">
         <v>121</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7410172281601752</v>
+        <v>0.7410172281601745</v>
       </c>
       <c r="X4" t="s">
         <v>121</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.631857519333613</v>
+        <v>0.6318575193336133</v>
       </c>
       <c r="Z4" t="s">
         <v>121</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.6641329387215993</v>
+        <v>0.6641329387215984</v>
       </c>
       <c r="AB4" t="s">
         <v>121</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.6989911925578196</v>
+        <v>0.698991192557819</v>
       </c>
       <c r="AD4" t="s">
         <v>121</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.6194727282558614</v>
+        <v>0.6194727282558615</v>
       </c>
       <c r="AF4" t="s">
         <v>121</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.6089825096669288</v>
+        <v>0.6089825096669285</v>
       </c>
       <c r="AH4" t="s">
         <v>118</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.5698315246776048</v>
+        <v>0.5698315246776053</v>
       </c>
       <c r="AJ4" t="s">
         <v>118</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.5689122976163877</v>
+        <v>0.5689122976163876</v>
       </c>
       <c r="AL4" t="s">
         <v>118</v>
@@ -9426,145 +9426,145 @@
         <v>121</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.49274863307795197</v>
+        <v>0.49274863307795247</v>
       </c>
       <c r="AP4" t="s">
         <v>121</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.47217847251993045</v>
+        <v>0.4721784725199303</v>
       </c>
       <c r="AR4" t="s">
         <v>118</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.4885639303956705</v>
+        <v>0.4885639303956709</v>
       </c>
       <c r="AT4" t="s">
         <v>118</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.5661400888362585</v>
+        <v>0.5661400888362588</v>
       </c>
       <c r="AV4" t="s">
         <v>118</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.5822992519559542</v>
+        <v>0.5822992519559546</v>
       </c>
       <c r="AX4" t="s">
         <v>118</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.5846818390541962</v>
+        <v>0.584681839054196</v>
       </c>
       <c r="AZ4" t="s">
         <v>118</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.6895434560028135</v>
+        <v>0.6895434560028141</v>
       </c>
       <c r="BB4" t="s">
         <v>118</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.6218718383663201</v>
+        <v>0.6218718383663204</v>
       </c>
       <c r="BD4" t="s">
         <v>118</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.6726888318784098</v>
+        <v>0.672688831878409</v>
       </c>
       <c r="BF4" t="s">
         <v>118</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.6405427135345045</v>
+        <v>0.640542713534504</v>
       </c>
       <c r="BH4" t="s">
         <v>118</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.6622174114686684</v>
+        <v>0.6622174114686686</v>
       </c>
       <c r="BJ4" t="s">
         <v>115</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.6474353289903017</v>
+        <v>0.6474353289903024</v>
       </c>
       <c r="BL4" t="s">
         <v>115</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.6312574834475883</v>
+        <v>0.631257483447588</v>
       </c>
       <c r="BN4" t="s">
         <v>121</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.6045621965986877</v>
+        <v>0.6045621965986875</v>
       </c>
       <c r="BP4" t="s">
         <v>115</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.6227036357887961</v>
+        <v>0.6227036357887962</v>
       </c>
       <c r="BR4" t="s">
         <v>115</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.6059709643593201</v>
+        <v>0.6059709643593195</v>
       </c>
       <c r="BT4" t="s">
         <v>121</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.6511126300934252</v>
+        <v>0.6511126300934253</v>
       </c>
       <c r="BV4" t="s">
         <v>121</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.6411832183243571</v>
+        <v>0.641183218324357</v>
       </c>
       <c r="BX4" t="s">
         <v>121</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.6561055905079018</v>
+        <v>0.6561055905079016</v>
       </c>
       <c r="BZ4" t="s">
         <v>115</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.617836255242236</v>
+        <v>0.6178362552422356</v>
       </c>
       <c r="CB4" t="s">
         <v>118</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.6224659081232422</v>
+        <v>0.622465908123243</v>
       </c>
       <c r="CD4" t="s">
         <v>115</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.6060194731212017</v>
+        <v>0.6060194731212011</v>
       </c>
       <c r="CF4" t="s">
         <v>115</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.6086701452773396</v>
+        <v>0.6086701452773391</v>
       </c>
       <c r="CH4" t="s">
         <v>121</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.6957228860574187</v>
+        <v>0.6957228860574188</v>
       </c>
       <c r="CJ4" t="s">
         <v>121</v>
@@ -9576,55 +9576,55 @@
         <v>121</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.6801666725916484</v>
+        <v>0.6801666725916482</v>
       </c>
       <c r="CN4" t="s">
         <v>115</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.6151880403875023</v>
+        <v>0.6151880403875026</v>
       </c>
       <c r="CP4" t="s">
         <v>115</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.617967050539505</v>
+        <v>0.6179670505395047</v>
       </c>
       <c r="CR4" t="s">
         <v>115</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.6056919531833914</v>
+        <v>0.6056919531833911</v>
       </c>
       <c r="CT4" t="s">
         <v>115</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.6155833763937386</v>
+        <v>0.6155833763937388</v>
       </c>
       <c r="CV4" t="s">
         <v>121</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.5993786555019988</v>
+        <v>0.5993786555019984</v>
       </c>
       <c r="CX4" t="s">
         <v>121</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.5429908381888876</v>
+        <v>0.5429908381888877</v>
       </c>
       <c r="CZ4" t="s">
         <v>121</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.5307629050650781</v>
+        <v>0.5307629050650782</v>
       </c>
       <c r="DB4" t="s">
         <v>121</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.5311527382257281</v>
+        <v>0.5311527382257286</v>
       </c>
     </row>
     <row r="5">
@@ -9635,97 +9635,97 @@
         <v>137</v>
       </c>
       <c r="C5" t="n">
-        <v>0.26586547843783553</v>
+        <v>0.2658654784378355</v>
       </c>
       <c r="D5" t="s">
         <v>115</v>
       </c>
       <c r="E5" t="n">
-        <v>0.14254433990055607</v>
+        <v>0.1425443399005554</v>
       </c>
       <c r="F5" t="s">
         <v>115</v>
       </c>
       <c r="G5" t="n">
-        <v>0.14093784311571073</v>
+        <v>0.14093784311571103</v>
       </c>
       <c r="H5" t="s">
         <v>115</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6668836797092602</v>
+        <v>0.6668836797092592</v>
       </c>
       <c r="J5" t="s">
         <v>115</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7650016807233172</v>
+        <v>0.7650016807233175</v>
       </c>
       <c r="L5" t="s">
         <v>115</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7158322991005169</v>
+        <v>0.7158322991005158</v>
       </c>
       <c r="N5" t="s">
         <v>115</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5646511130949917</v>
+        <v>0.5646511130949923</v>
       </c>
       <c r="P5" t="s">
         <v>125</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6706460766781364</v>
+        <v>0.670646076678135</v>
       </c>
       <c r="R5" t="s">
         <v>125</v>
       </c>
       <c r="S5" t="n">
-        <v>0.46806882493565743</v>
+        <v>0.4680688249356573</v>
       </c>
       <c r="T5" t="s">
         <v>125</v>
       </c>
       <c r="U5" t="n">
-        <v>0.4736033420919967</v>
+        <v>0.4736033420919975</v>
       </c>
       <c r="V5" t="s">
         <v>125</v>
       </c>
       <c r="W5" t="n">
-        <v>0.6299745887797417</v>
+        <v>0.6299745887797409</v>
       </c>
       <c r="X5" t="s">
         <v>125</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.4980330033282987</v>
+        <v>0.49803300332829875</v>
       </c>
       <c r="Z5" t="s">
         <v>113</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.5086341685428158</v>
+        <v>0.5086341685428151</v>
       </c>
       <c r="AB5" t="s">
         <v>125</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.5184873105551473</v>
+        <v>0.5184873105551469</v>
       </c>
       <c r="AD5" t="s">
         <v>118</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.5336365102199242</v>
+        <v>0.5336365102199244</v>
       </c>
       <c r="AF5" t="s">
         <v>118</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.5701273102973171</v>
+        <v>0.5701273102973176</v>
       </c>
       <c r="AH5" t="s">
         <v>121</v>
@@ -9737,79 +9737,79 @@
         <v>121</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.5220240568402935</v>
+        <v>0.5220240568402937</v>
       </c>
       <c r="AL5" t="s">
         <v>121</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.4872720225925916</v>
+        <v>0.487272022592592</v>
       </c>
       <c r="AN5" t="s">
         <v>118</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.4712948906898756</v>
+        <v>0.4712948906898755</v>
       </c>
       <c r="AP5" t="s">
         <v>118</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.4645238015973509</v>
+        <v>0.4645238015973505</v>
       </c>
       <c r="AR5" t="s">
         <v>121</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.47950226785566596</v>
+        <v>0.4795022678556658</v>
       </c>
       <c r="AT5" t="s">
         <v>121</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.5371074819328355</v>
+        <v>0.537107481932835</v>
       </c>
       <c r="AV5" t="s">
         <v>121</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.5248838608607566</v>
+        <v>0.5248838608607568</v>
       </c>
       <c r="AX5" t="s">
         <v>121</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.5359042927934851</v>
+        <v>0.5359042927934852</v>
       </c>
       <c r="AZ5" t="s">
         <v>121</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.5384841759639178</v>
+        <v>0.5384841759639181</v>
       </c>
       <c r="BB5" t="s">
         <v>121</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.5579974467816753</v>
+        <v>0.5579974467816747</v>
       </c>
       <c r="BD5" t="s">
         <v>121</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.5463329974896851</v>
+        <v>0.546332997489685</v>
       </c>
       <c r="BF5" t="s">
         <v>121</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.5600305052324875</v>
+        <v>0.5600305052324868</v>
       </c>
       <c r="BH5" t="s">
         <v>121</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.5625420578712181</v>
+        <v>0.5625420578712176</v>
       </c>
       <c r="BJ5" t="s">
         <v>121</v>
@@ -9821,55 +9821,55 @@
         <v>119</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.5744601861059645</v>
+        <v>0.5744601861059643</v>
       </c>
       <c r="BN5" t="s">
         <v>115</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.5852583970810805</v>
+        <v>0.5852583970810799</v>
       </c>
       <c r="BP5" t="s">
         <v>118</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.5529238257681018</v>
+        <v>0.5529238257681017</v>
       </c>
       <c r="BR5" t="s">
         <v>118</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.589643589846575</v>
+        <v>0.5896435898465746</v>
       </c>
       <c r="BT5" t="s">
         <v>118</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.5064554491510841</v>
+        <v>0.5064554491510846</v>
       </c>
       <c r="BV5" t="s">
         <v>118</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.389190271178262</v>
+        <v>0.38919027117826105</v>
       </c>
       <c r="BX5" t="s">
         <v>118</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.4026132744156068</v>
+        <v>0.4026132744156069</v>
       </c>
       <c r="BZ5" t="s">
         <v>118</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.519181536008674</v>
+        <v>0.5191815360086737</v>
       </c>
       <c r="CB5" t="s">
         <v>115</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.5915513001361509</v>
+        <v>0.5915513001361506</v>
       </c>
       <c r="CD5" t="s">
         <v>118</v>
@@ -9881,43 +9881,43 @@
         <v>118</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.5663117457960269</v>
+        <v>0.5663117457960268</v>
       </c>
       <c r="CH5" t="s">
         <v>115</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.5755089466252125</v>
+        <v>0.5755089466252126</v>
       </c>
       <c r="CJ5" t="s">
         <v>115</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.559294887596565</v>
+        <v>0.5592948875965645</v>
       </c>
       <c r="CL5" t="s">
         <v>115</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.5645965142339567</v>
+        <v>0.5645965142339562</v>
       </c>
       <c r="CN5" t="s">
         <v>118</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.4547659728536562</v>
+        <v>0.4547659728536567</v>
       </c>
       <c r="CP5" t="s">
         <v>118</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.43762040095617694</v>
+        <v>0.437620400956178</v>
       </c>
       <c r="CR5" t="s">
         <v>118</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.486605425643723</v>
+        <v>0.4866054256437223</v>
       </c>
       <c r="CT5" t="s">
         <v>118</v>
@@ -9935,19 +9935,19 @@
         <v>118</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.4196363562689758</v>
+        <v>0.41963635626897666</v>
       </c>
       <c r="CZ5" t="s">
         <v>124</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.4052945279078393</v>
+        <v>0.40529452790783943</v>
       </c>
       <c r="DB5" t="s">
         <v>124</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.43065316663729336</v>
+        <v>0.4306531666372942</v>
       </c>
     </row>
     <row r="6">
@@ -9958,43 +9958,43 @@
         <v>135</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2546420408661337</v>
+        <v>0.25464204086613357</v>
       </c>
       <c r="D6" t="s">
         <v>113</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09154525674871511</v>
+        <v>0.09154525674871443</v>
       </c>
       <c r="F6" t="s">
         <v>113</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07364565530068763</v>
+        <v>0.07364565530068766</v>
       </c>
       <c r="H6" t="s">
         <v>113</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4332142380914961</v>
+        <v>0.43321423809149584</v>
       </c>
       <c r="J6" t="s">
         <v>113</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4163474211318675</v>
+        <v>0.4163474211318674</v>
       </c>
       <c r="L6" t="s">
         <v>113</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3504238001013678</v>
+        <v>0.35042380010136753</v>
       </c>
       <c r="N6" t="s">
         <v>113</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2812434854299368</v>
+        <v>0.2812434854299375</v>
       </c>
       <c r="P6" t="s">
         <v>113</v>
@@ -10012,79 +10012,79 @@
         <v>113</v>
       </c>
       <c r="U6" t="n">
-        <v>0.43668934749643823</v>
+        <v>0.4366893474964383</v>
       </c>
       <c r="V6" t="s">
         <v>113</v>
       </c>
       <c r="W6" t="n">
-        <v>0.4443507814414272</v>
+        <v>0.4443507814414269</v>
       </c>
       <c r="X6" t="s">
         <v>113</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.45727978325485164</v>
+        <v>0.45727978325485236</v>
       </c>
       <c r="Z6" t="s">
         <v>125</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.5034116218701115</v>
+        <v>0.5034116218701103</v>
       </c>
       <c r="AB6" t="s">
         <v>118</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.48527329714789064</v>
+        <v>0.4852732971478912</v>
       </c>
       <c r="AD6" t="s">
         <v>113</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.47364165454550916</v>
+        <v>0.47364165454550955</v>
       </c>
       <c r="AF6" t="s">
         <v>113</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.480905056340263</v>
+        <v>0.48090505634026304</v>
       </c>
       <c r="AH6" t="s">
         <v>113</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.5015098105507592</v>
+        <v>0.5015098105507588</v>
       </c>
       <c r="AJ6" t="s">
         <v>113</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.47242678208593075</v>
+        <v>0.47242678208593103</v>
       </c>
       <c r="AL6" t="s">
         <v>113</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.43189590662304994</v>
+        <v>0.43189590662305033</v>
       </c>
       <c r="AN6" t="s">
         <v>113</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.40443234894159186</v>
+        <v>0.40443234894159197</v>
       </c>
       <c r="AP6" t="s">
         <v>113</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.37526085011521876</v>
+        <v>0.3752608501152182</v>
       </c>
       <c r="AR6" t="s">
         <v>113</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.3555978696408477</v>
+        <v>0.35559786964084805</v>
       </c>
       <c r="AT6" t="s">
         <v>119</v>
@@ -10096,127 +10096,127 @@
         <v>119</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.3721726877384041</v>
+        <v>0.3721726877384038</v>
       </c>
       <c r="AX6" t="s">
         <v>119</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.40090153785596444</v>
+        <v>0.40090153785596416</v>
       </c>
       <c r="AZ6" t="s">
         <v>119</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.4788657082953597</v>
+        <v>0.47886570829535996</v>
       </c>
       <c r="BB6" t="s">
         <v>119</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.43274073862650037</v>
+        <v>0.4327407386265009</v>
       </c>
       <c r="BD6" t="s">
         <v>119</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.48599191625338883</v>
+        <v>0.4859919162533881</v>
       </c>
       <c r="BF6" t="s">
         <v>119</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.46439200241016004</v>
+        <v>0.4643920024101602</v>
       </c>
       <c r="BH6" t="s">
         <v>119</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.47465504885826715</v>
+        <v>0.474655048858267</v>
       </c>
       <c r="BJ6" t="s">
         <v>119</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.5132829680503579</v>
+        <v>0.5132829680503586</v>
       </c>
       <c r="BL6" t="s">
         <v>121</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.5708106121641247</v>
+        <v>0.570810612164125</v>
       </c>
       <c r="BN6" t="s">
         <v>119</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.5804483477842837</v>
+        <v>0.5804483477842832</v>
       </c>
       <c r="BP6" t="s">
         <v>119</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.41665174010890305</v>
+        <v>0.41665174010890293</v>
       </c>
       <c r="BR6" t="s">
         <v>113</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.4325019081222278</v>
+        <v>0.4325019081222275</v>
       </c>
       <c r="BT6" t="s">
         <v>113</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.3851868869697803</v>
+        <v>0.38518688696978093</v>
       </c>
       <c r="BV6" t="s">
         <v>113</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.31234066976421276</v>
+        <v>0.31234066976421293</v>
       </c>
       <c r="BX6" t="s">
         <v>113</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.31099741869243436</v>
+        <v>0.3109974186924342</v>
       </c>
       <c r="BZ6" t="s">
         <v>113</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.34801376473883683</v>
+        <v>0.34801376473883666</v>
       </c>
       <c r="CB6" t="s">
         <v>119</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.4235797477398254</v>
+        <v>0.4235797477398247</v>
       </c>
       <c r="CD6" t="s">
         <v>119</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.41482860474148076</v>
+        <v>0.4148286047414801</v>
       </c>
       <c r="CF6" t="s">
         <v>119</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.40324333044119104</v>
+        <v>0.40324333044119093</v>
       </c>
       <c r="CH6" t="s">
         <v>119</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.5345318889758077</v>
+        <v>0.5345318889758072</v>
       </c>
       <c r="CJ6" t="s">
         <v>119</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.5269995373658414</v>
+        <v>0.5269995373658418</v>
       </c>
       <c r="CL6" t="s">
         <v>119</v>
@@ -10228,7 +10228,7 @@
         <v>113</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.31767488154775947</v>
+        <v>0.317674881547759</v>
       </c>
       <c r="CP6" t="s">
         <v>113</v>
@@ -10240,7 +10240,7 @@
         <v>113</v>
       </c>
       <c r="CS6" t="n">
-        <v>0.3332157388182347</v>
+        <v>0.33321573881823424</v>
       </c>
       <c r="CT6" t="s">
         <v>113</v>
@@ -10252,25 +10252,25 @@
         <v>118</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.38970620591973915</v>
+        <v>0.3897062059197394</v>
       </c>
       <c r="CX6" t="s">
         <v>124</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.40230065931211795</v>
+        <v>0.4023006593121186</v>
       </c>
       <c r="CZ6" t="s">
         <v>118</v>
       </c>
       <c r="DA6" t="n">
-        <v>0.39697019353824836</v>
+        <v>0.3969701935382481</v>
       </c>
       <c r="DB6" t="s">
         <v>154</v>
       </c>
       <c r="DC6" t="n">
-        <v>0.4187922321899688</v>
+        <v>0.4187922321899692</v>
       </c>
     </row>
   </sheetData>
